--- a/data/trans_dic/AIRE_1_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/AIRE_1_R-Clase-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.6445180133566061</v>
+        <v>0.6445180133566062</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.6512484050310071</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5878083377104457</v>
+        <v>0.5810458730448906</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.601216026540941</v>
+        <v>0.6004073465195581</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.604155834184592</v>
+        <v>0.6073549576155688</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7015615228842697</v>
+        <v>0.6972090451017355</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7024392872574611</v>
+        <v>0.7037327028074482</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6845819338316014</v>
+        <v>0.6854376852450381</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.6805760211662442</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.7874969614558657</v>
+        <v>0.7874969614558655</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.7261569894135024</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6176626063344354</v>
+        <v>0.6178322236072692</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7315978711532071</v>
+        <v>0.7333250537716701</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6818566364081537</v>
+        <v>0.6839164299339766</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7335273593622624</v>
+        <v>0.7411382728327635</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8318846377979936</v>
+        <v>0.8331376068466705</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7628126855218653</v>
+        <v>0.7625197543775253</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.785825936739736</v>
+        <v>0.7858259367397359</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8125662283824838</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.729504630178518</v>
+        <v>0.7263466599509331</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7355549152514348</v>
+        <v>0.7334914787970062</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.745968454023318</v>
+        <v>0.747873164683609</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8382980270984385</v>
+        <v>0.8352275732670987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.872989617253062</v>
+        <v>0.8721374345778519</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8370524181238221</v>
+        <v>0.8316955965111235</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.7807707446666056</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.7461115230604068</v>
+        <v>0.7461115230604067</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.7659017376695323</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7365601682227465</v>
+        <v>0.7401055061187563</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7054086517392816</v>
+        <v>0.7094853921962808</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7348722900550509</v>
+        <v>0.7393473667386163</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8174829302031709</v>
+        <v>0.8191582052492802</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7814811823359472</v>
+        <v>0.7832149100219756</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.792077204404472</v>
+        <v>0.7920748277814211</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.8132425630758869</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.8315087364295795</v>
+        <v>0.8315087364295793</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8241144817494424</v>
+        <v>0.8241144817494426</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7601047550199688</v>
+        <v>0.7601730242906816</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7981463703432893</v>
+        <v>0.8027638123089255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7951405893129154</v>
+        <v>0.8000771068214649</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8589230357808906</v>
+        <v>0.8640231607886413</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8568813507377955</v>
+        <v>0.8624306836109787</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8494254417432296</v>
+        <v>0.8507343183551044</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5022793823837508</v>
+        <v>0.4845810795789237</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7521949185943372</v>
+        <v>0.749369603655454</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7177892386131407</v>
+        <v>0.7202280048421955</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7905368921117745</v>
+        <v>0.7830533866171341</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8337526163566651</v>
+        <v>0.8294165519072325</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8069643510696488</v>
+        <v>0.8113590491784529</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.7408546685066949</v>
+        <v>0.740854668506695</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.7724669119811626</v>
+        <v>0.7724669119811625</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7568878665038542</v>
+        <v>0.7568878665038543</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7179350979523234</v>
+        <v>0.7142649229154825</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7545740052107923</v>
+        <v>0.7550281129419387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7411254425810857</v>
+        <v>0.7422279162791852</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7616404581190194</v>
+        <v>0.7622445177697315</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7900069719167157</v>
+        <v>0.7903792758532621</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7714671776048153</v>
+        <v>0.7710090451571734</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>167691</v>
+        <v>165762</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>141471</v>
+        <v>141281</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>314517</v>
+        <v>316183</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>200143</v>
+        <v>198901</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>165290</v>
+        <v>165594</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>356387</v>
+        <v>356832</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>168065</v>
+        <v>168111</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>147924</v>
+        <v>148273</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>323398</v>
+        <v>324375</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>199591</v>
+        <v>201662</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>168201</v>
+        <v>168455</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>361795</v>
+        <v>361656</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>183261</v>
+        <v>182468</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>68294</v>
+        <v>68102</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>256658</v>
+        <v>257313</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>210591</v>
+        <v>209820</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81054</v>
+        <v>80975</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>287996</v>
+        <v>286153</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>419093</v>
+        <v>421110</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>301561</v>
+        <v>303304</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>732289</v>
+        <v>736749</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>465137</v>
+        <v>466090</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>334082</v>
+        <v>334823</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>789293</v>
+        <v>789291</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>207197</v>
+        <v>207216</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>319892</v>
+        <v>321743</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>535435</v>
+        <v>538759</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>234134</v>
+        <v>235524</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>343433</v>
+        <v>345657</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>571990</v>
+        <v>572871</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>56746</v>
+        <v>54747</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>342930</v>
+        <v>341642</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>408337</v>
+        <v>409725</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>89312</v>
+        <v>88467</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>380113</v>
+        <v>378136</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>459067</v>
+        <v>461568</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1265825</v>
+        <v>1259354</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>1369208</v>
+        <v>1370032</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2651518</v>
+        <v>2655462</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1342884</v>
+        <v>1343949</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>1433503</v>
+        <v>1434179</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2760071</v>
+        <v>2758432</v>
       </c>
     </row>
     <row r="32">
